--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PreTPIDoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProgramme\ClassicMono\KaizerWald_TowerDefense\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14595" windowHeight="6750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -332,6 +332,24 @@
   </si>
   <si>
     <t>Ajout de l'objectif à atteindre pour les enemy, si il est atteint, le joueur perd 1 point de vie</t>
+  </si>
+  <si>
+    <t>Tourelle: ObjectPooling pour Munition</t>
+  </si>
+  <si>
+    <t>Tourelle : Munition</t>
+  </si>
+  <si>
+    <t>Remplacement du vieux system BulletManager
+Pour un Pool d'objet mettant fin aux problème lié aux entrecroisement des concernes entre Tourelles et munitions</t>
+  </si>
+  <si>
+    <t>Discussion avec chef de projet</t>
+  </si>
+  <si>
+    <t>Pour le 14 Mars proposer un projet TPI
+Partir sur un RTS
+avoir un solution Tower Defense au cas ou</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1342,7 @@
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,41 +2166,71 @@
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="31">
+        <v>44620</v>
+      </c>
+      <c r="B37" s="18">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C37" s="18">
+        <v>0.44722222222222219</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="23"/>
+        <v>3.7499999999999922E-2</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>58</v>
+      </c>
       <c r="G37" s="19"/>
       <c r="H37" s="20"/>
     </row>
     <row r="38" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="3">
+        <v>44620</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.4861111111111111</v>
+      </c>
       <c r="D38" s="4">
         <f t="shared" ref="D38:D41" si="6">C38-B38</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="21"/>
+        <v>3.7499999999999978E-2</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>77</v>
+      </c>
       <c r="G38" s="6"/>
       <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
+      <c r="A39" s="3">
+        <v>44620</v>
+      </c>
+      <c r="B39" s="18">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C39" s="18">
+        <v>0.49583333333333335</v>
+      </c>
       <c r="D39" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="23"/>
+        <v>9.7222222222222432E-3</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>79</v>
+      </c>
       <c r="G39" s="19"/>
       <c r="H39" s="20"/>
     </row>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -350,6 +350,40 @@
     <t>Pour le 14 Mars proposer un projet TPI
 Partir sur un RTS
 avoir un solution Tower Defense au cas ou</t>
+  </si>
+  <si>
+    <t>Mail Chef de Projet</t>
+  </si>
+  <si>
+    <t>mal entendu de ma part concernant la partie adaptative du pathfinding
+prévu initialement : un labyrinth: cela ne casse rien au niveau de ce qui a été mis en place, sa mise en place va impacter des modules qui sont encore à implémenter</t>
+  </si>
+  <si>
+    <t>Analyse et Conception
+Pathfinding Labyrinth</t>
+  </si>
+  <si>
+    <t>Problématique et intégration aux grid générics déjà en place</t>
+  </si>
+  <si>
+    <t>Redirection des objectifs</t>
+  </si>
+  <si>
+    <t>La réponse au mail concernant la demande pour éviter la détection d'obstacle a été reçu.
+Cependant ne restant que 3 semaines il est urgent de définir les objectifs afin d'avoir un projet qui remplisse un maximum le cahier des charges</t>
+  </si>
+  <si>
+    <t>Mettre la documentation technique à jour</t>
+  </si>
+  <si>
+    <t>Analyse et conception
+Pathfinding Detection chemin bloqué</t>
+  </si>
+  <si>
+    <t>https://www.redblobgames.com/pathfinding/a-star/introduction.html</t>
+  </si>
+  <si>
+    <t>Recherche via RedBlobGame contenant enormement d'article et lien d'articles sur le pathfinding</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1376,7 @@
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2234,65 +2268,113 @@
       <c r="G39" s="19"/>
       <c r="H39" s="20"/>
     </row>
-    <row r="40" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+    <row r="40" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.49583333333333335</v>
+      </c>
       <c r="D40" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="21"/>
+        <v>9.7222222222222432E-3</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>81</v>
+      </c>
       <c r="G40" s="6"/>
       <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
+      <c r="A41" s="31">
+        <v>44621</v>
+      </c>
+      <c r="B41" s="18">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="C41" s="18">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="D41" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="23"/>
+        <v>1.4583333333333282E-2</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>83</v>
+      </c>
       <c r="G41" s="19"/>
       <c r="H41" s="20"/>
     </row>
     <row r="42" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="A42" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.57847222222222217</v>
+      </c>
       <c r="D42" s="4">
         <f t="shared" ref="D42:D81" si="7">C42-B42</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="6"/>
+        <v>1.5972222222222165E-2</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="31">
+        <v>44621</v>
+      </c>
+      <c r="B43" s="18">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="C43" s="18">
+        <v>0.62916666666666665</v>
+      </c>
       <c r="D43" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="30"/>
+        <v>5.0694444444444486E-2</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>87</v>
+      </c>
       <c r="F43" s="23"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="20"/>
+      <c r="G43" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
+      <c r="A44" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.64236111111111105</v>
+      </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-0.64236111111111105</v>
       </c>
       <c r="E44" s="30"/>
       <c r="F44" s="21"/>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
   <si>
     <t>Date</t>
   </si>
@@ -384,6 +384,30 @@
   </si>
   <si>
     <t>Recherche via RedBlobGame contenant enormement d'article et lien d'articles sur le pathfinding</t>
+  </si>
+  <si>
+    <t>Pathfinding : Astar</t>
+  </si>
+  <si>
+    <t>Implémentation simple</t>
+  </si>
+  <si>
+    <t>Correction Crash</t>
+  </si>
+  <si>
+    <t>Burst fait planté l'éditeur (pas sur le stand alone d'après les ingénieur de Unity)</t>
+  </si>
+  <si>
+    <t>Mise en Place d'un Pragma permettant d'activer Burst Uniquement quand le jeu sera compilé</t>
+  </si>
+  <si>
+    <t>Mise en Place d'un debugger visuel</t>
+  </si>
+  <si>
+    <t>CRASH a corriger rapidement</t>
+  </si>
+  <si>
+    <t>Lecture d'article de recherche sur le modele HPA</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -2371,52 +2395,88 @@
       <c r="B44" s="4">
         <v>0.64236111111111105</v>
       </c>
-      <c r="C44" s="4"/>
+      <c r="C44" s="4">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="D44" s="4">
         <f t="shared" si="7"/>
-        <v>-0.64236111111111105</v>
-      </c>
-      <c r="E44" s="30"/>
+        <v>6.2500000000000111E-2</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>97</v>
+      </c>
       <c r="F44" s="21"/>
       <c r="G44" s="6"/>
       <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="31">
+        <v>44622</v>
+      </c>
+      <c r="B45" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C45" s="18">
+        <v>0.35694444444444445</v>
+      </c>
       <c r="D45" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="23"/>
+        <v>2.3611111111111138E-2</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>91</v>
+      </c>
       <c r="G45" s="19"/>
       <c r="H45" s="20"/>
     </row>
     <row r="46" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="A46" s="3">
+        <v>44622</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.3659722222222222</v>
+      </c>
       <c r="D46" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="6"/>
+        <v>9.0277777777777457E-3</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
+      <c r="A47" s="31">
+        <v>44622</v>
+      </c>
+      <c r="B47" s="18">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="C47" s="18">
+        <v>0.39930555555555558</v>
+      </c>
       <c r="D47" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="23"/>
+        <v>3.2638888888888884E-2</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="G47" s="19"/>
       <c r="H47" s="20"/>
     </row>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr showObjects="none"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProgramme\ClassicMono\KaizerWald_TowerDefense\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ProjetPerso\Unity\Classic_MonoBehavior\TPIProjet\KaizerWald_TowerDefense\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84800ACD-175B-4B20-9DD6-36FA66F0C604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11430"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="105">
   <si>
     <t>Date</t>
   </si>
@@ -409,11 +410,34 @@
   <si>
     <t>Lecture d'article de recherche sur le modele HPA</t>
   </si>
+  <si>
+    <t>Burst a enfin été mis à jour par Unity et il est enfin possible de travailler sur l'éditeur sans que celui-ci ne crash!</t>
+  </si>
+  <si>
+    <t>Mise a jour de Burst</t>
+  </si>
+  <si>
+    <t>Implémentation du Pathfinding Astar + adaptation pour utilisation avec job system</t>
+  </si>
+  <si>
+    <t>Afin de pouvoir utiliser l'asycrone de Unity il a fallu revoir l'algoritm les collection utilisé ain que ces dernière soient compatible avec Burst et le job system</t>
+  </si>
+  <si>
+    <t>l'implémentation est fonctionnelle mais est clairement peut élégantes il faudra la revoir</t>
+  </si>
+  <si>
+    <t>Prototype pour s'adapter aux nouveau obstacles
++ interface pour manager les ressources de type Grille</t>
+  </si>
+  <si>
+    <t>L'utilisation assez conséquente de grille commencent à poser des soucies d'achitecture: il faut créer un système pour partager cette ressource de manière centralisé au risque de voir le code devenir hors de contrôle
+Une implémentation basiqu à été faite pour reconnaître les obstacles et recalculer le chemin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1082,19 +1106,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Journal" displayName="Journal" ref="A1:H81" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
-  <autoFilter ref="A1:H81"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Journal" displayName="Journal" ref="A1:H81" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="A1:H81" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Date" dataDxfId="7"/>
-    <tableColumn id="2" name="Début" dataDxfId="6"/>
-    <tableColumn id="3" name="Fin" dataDxfId="5"/>
-    <tableColumn id="4" name="Heure" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Début" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Fin" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Heure" dataDxfId="4">
       <calculatedColumnFormula>C2-B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Tâche" dataDxfId="3"/>
-    <tableColumn id="6" name="Description" dataDxfId="2"/>
-    <tableColumn id="7" name="Solutions" dataDxfId="1"/>
-    <tableColumn id="9" name="Sources" dataDxfId="0" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tâche" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Description" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Solutions" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sources" dataDxfId="0" dataCellStyle="Lien hypertexte"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1396,23 +1420,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" customWidth="1"/>
-    <col min="7" max="7" width="100.7109375" customWidth="1"/>
-    <col min="8" max="8" width="50.7109375" customWidth="1"/>
+    <col min="1" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" customWidth="1"/>
+    <col min="7" max="7" width="100.6640625" customWidth="1"/>
+    <col min="8" max="8" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1438,7 +1462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +1485,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1484,7 +1508,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1507,7 +1531,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1532,7 +1556,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1555,7 +1579,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1578,7 +1602,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -1603,7 +1627,7 @@
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
@@ -1626,7 +1650,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>22</v>
       </c>
@@ -1651,7 +1675,7 @@
       </c>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
@@ -1674,7 +1698,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
@@ -1699,7 +1723,7 @@
       </c>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" ht="324.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="324.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>22</v>
       </c>
@@ -1726,7 +1750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>22</v>
       </c>
@@ -1751,7 +1775,7 @@
       </c>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27">
         <v>44599</v>
       </c>
@@ -1774,7 +1798,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27">
         <v>44599</v>
       </c>
@@ -1797,7 +1821,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="27">
         <v>44600</v>
       </c>
@@ -1814,7 +1838,7 @@
       <c r="G17" s="26"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="27">
         <v>44600</v>
       </c>
@@ -1831,7 +1855,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="27">
         <v>44600</v>
       </c>
@@ -1848,7 +1872,7 @@
       <c r="G19" s="29"/>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27">
         <v>44600</v>
       </c>
@@ -1865,7 +1889,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27">
         <v>44601</v>
       </c>
@@ -1882,7 +1906,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="27">
         <v>44603</v>
       </c>
@@ -1899,7 +1923,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27">
         <v>44606</v>
       </c>
@@ -1920,7 +1944,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44606</v>
       </c>
@@ -1941,7 +1965,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>44607</v>
       </c>
@@ -1964,7 +1988,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>44607</v>
       </c>
@@ -1989,7 +2013,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>44607</v>
       </c>
@@ -2012,7 +2036,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>44607</v>
       </c>
@@ -2037,7 +2061,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44608</v>
       </c>
@@ -2060,7 +2084,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31">
         <v>44609</v>
       </c>
@@ -2083,7 +2107,7 @@
       <c r="G30" s="19"/>
       <c r="H30" s="20"/>
     </row>
-    <row r="31" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>44613</v>
       </c>
@@ -2106,7 +2130,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31">
         <v>44614</v>
       </c>
@@ -2129,7 +2153,7 @@
       <c r="G32" s="19"/>
       <c r="H32" s="20"/>
     </row>
-    <row r="33" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>44614</v>
       </c>
@@ -2154,7 +2178,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31">
         <v>44615</v>
       </c>
@@ -2177,7 +2201,7 @@
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
     </row>
-    <row r="35" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>44617</v>
       </c>
@@ -2200,7 +2224,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>44617</v>
       </c>
@@ -2223,7 +2247,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="31">
         <v>44620</v>
       </c>
@@ -2246,7 +2270,7 @@
       <c r="G37" s="19"/>
       <c r="H37" s="20"/>
     </row>
-    <row r="38" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44620</v>
       </c>
@@ -2269,7 +2293,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>44620</v>
       </c>
@@ -2292,7 +2316,7 @@
       <c r="G39" s="19"/>
       <c r="H39" s="20"/>
     </row>
-    <row r="40" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>44621</v>
       </c>
@@ -2315,7 +2339,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="31">
         <v>44621</v>
       </c>
@@ -2338,7 +2362,7 @@
       <c r="G41" s="19"/>
       <c r="H41" s="20"/>
     </row>
-    <row r="42" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>44621</v>
       </c>
@@ -2363,7 +2387,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="31">
         <v>44621</v>
       </c>
@@ -2388,7 +2412,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>44621</v>
       </c>
@@ -2409,7 +2433,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="31">
         <v>44622</v>
       </c>
@@ -2432,7 +2456,7 @@
       <c r="G45" s="19"/>
       <c r="H45" s="20"/>
     </row>
-    <row r="46" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44622</v>
       </c>
@@ -2457,7 +2481,7 @@
       </c>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="31">
         <v>44622</v>
       </c>
@@ -2480,46 +2504,78 @@
       <c r="G47" s="19"/>
       <c r="H47" s="20"/>
     </row>
-    <row r="48" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+    <row r="48" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="31">
+        <v>44624</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.52777777777777779</v>
+      </c>
       <c r="D48" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="21"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>98</v>
+      </c>
       <c r="G48" s="6"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
+    <row r="49" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
+        <v>44624</v>
+      </c>
+      <c r="B49" s="18">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="C49" s="18">
+        <v>0.58819444444444446</v>
+      </c>
       <c r="D49" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E49" s="30"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="19"/>
+        <v>6.0416666666666674E-2</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="H49" s="20"/>
     </row>
-    <row r="50" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+    <row r="50" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="31">
+        <v>44624</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="D50" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="21"/>
+        <v>4.0277777777777746E-2</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>104</v>
+      </c>
       <c r="G50" s="6"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="31"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -2532,7 +2588,7 @@
       <c r="G51" s="19"/>
       <c r="H51" s="20"/>
     </row>
-    <row r="52" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2545,7 +2601,7 @@
       <c r="G52" s="6"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="31"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
@@ -2558,7 +2614,7 @@
       <c r="G53" s="19"/>
       <c r="H53" s="20"/>
     </row>
-    <row r="54" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2571,7 +2627,7 @@
       <c r="G54" s="6"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="31"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -2584,7 +2640,7 @@
       <c r="G55" s="19"/>
       <c r="H55" s="20"/>
     </row>
-    <row r="56" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2597,7 +2653,7 @@
       <c r="G56" s="6"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="31"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -2610,7 +2666,7 @@
       <c r="G57" s="19"/>
       <c r="H57" s="20"/>
     </row>
-    <row r="58" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2623,7 +2679,7 @@
       <c r="G58" s="6"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="31"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -2636,7 +2692,7 @@
       <c r="G59" s="19"/>
       <c r="H59" s="20"/>
     </row>
-    <row r="60" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2649,7 +2705,7 @@
       <c r="G60" s="6"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="31"/>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
@@ -2662,7 +2718,7 @@
       <c r="G61" s="19"/>
       <c r="H61" s="20"/>
     </row>
-    <row r="62" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2675,7 +2731,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="31"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -2688,7 +2744,7 @@
       <c r="G63" s="19"/>
       <c r="H63" s="20"/>
     </row>
-    <row r="64" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2701,7 +2757,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="31"/>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
@@ -2714,7 +2770,7 @@
       <c r="G65" s="19"/>
       <c r="H65" s="20"/>
     </row>
-    <row r="66" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2727,7 +2783,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="31"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
@@ -2740,7 +2796,7 @@
       <c r="G67" s="19"/>
       <c r="H67" s="20"/>
     </row>
-    <row r="68" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2753,7 +2809,7 @@
       <c r="G68" s="6"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="31"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
@@ -2766,7 +2822,7 @@
       <c r="G69" s="19"/>
       <c r="H69" s="20"/>
     </row>
-    <row r="70" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2779,7 +2835,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="31"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -2792,7 +2848,7 @@
       <c r="G71" s="19"/>
       <c r="H71" s="20"/>
     </row>
-    <row r="72" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2805,7 +2861,7 @@
       <c r="G72" s="6"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="31"/>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
@@ -2818,7 +2874,7 @@
       <c r="G73" s="19"/>
       <c r="H73" s="20"/>
     </row>
-    <row r="74" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2831,7 +2887,7 @@
       <c r="G74" s="6"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="31"/>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
@@ -2844,7 +2900,7 @@
       <c r="G75" s="19"/>
       <c r="H75" s="20"/>
     </row>
-    <row r="76" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2857,7 +2913,7 @@
       <c r="G76" s="6"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="31"/>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
@@ -2870,7 +2926,7 @@
       <c r="G77" s="19"/>
       <c r="H77" s="20"/>
     </row>
-    <row r="78" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2883,7 +2939,7 @@
       <c r="G78" s="6"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="31"/>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
@@ -2896,7 +2952,7 @@
       <c r="G79" s="19"/>
       <c r="H79" s="20"/>
     </row>
-    <row r="80" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>44659</v>
       </c>
@@ -2919,7 +2975,7 @@
       <c r="G80" s="6"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="31">
         <v>44660</v>
       </c>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr showObjects="none" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ProjetPerso\Unity\Classic_MonoBehavior\TPIProjet\KaizerWald_TowerDefense\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProgramme\ClassicMono\KaizerWald_TowerDefense\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84800ACD-175B-4B20-9DD6-36FA66F0C604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30825" yWindow="-105" windowWidth="30930" windowHeight="16890"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -433,11 +432,21 @@
     <t>L'utilisation assez conséquente de grille commencent à poser des soucies d'achitecture: il faut créer un système pour partager cette ressource de manière centralisé au risque de voir le code devenir hors de contrôle
 Une implémentation basiqu à été faite pour reconnaître les obstacles et recalculer le chemin</t>
   </si>
+  <si>
+    <t>Refactor FlowField</t>
+  </si>
+  <si>
+    <t>Utilisation de l'utilitaire Grille partionnée</t>
+  </si>
+  <si>
+    <t>Adaptation du flowField
+pathfinding dynamic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1106,19 +1115,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Journal" displayName="Journal" ref="A1:H81" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
-  <autoFilter ref="A1:H81" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Journal" displayName="Journal" ref="A1:H81" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="A1:H81"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Début" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Fin" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Heure" dataDxfId="4">
+    <tableColumn id="1" name="Date" dataDxfId="7"/>
+    <tableColumn id="2" name="Début" dataDxfId="6"/>
+    <tableColumn id="3" name="Fin" dataDxfId="5"/>
+    <tableColumn id="4" name="Heure" dataDxfId="4">
       <calculatedColumnFormula>C2-B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tâche" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Description" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Solutions" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sources" dataDxfId="0" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="5" name="Tâche" dataDxfId="3"/>
+    <tableColumn id="6" name="Description" dataDxfId="2"/>
+    <tableColumn id="7" name="Solutions" dataDxfId="1"/>
+    <tableColumn id="9" name="Sources" dataDxfId="0" dataCellStyle="Lien hypertexte"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1420,23 +1429,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" customWidth="1"/>
-    <col min="7" max="7" width="100.6640625" customWidth="1"/>
-    <col min="8" max="8" width="50.6640625" customWidth="1"/>
+    <col min="1" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" customWidth="1"/>
+    <col min="7" max="7" width="100.7109375" customWidth="1"/>
+    <col min="8" max="8" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1462,7 +1471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1485,7 +1494,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1508,7 +1517,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1531,7 +1540,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1556,7 +1565,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1579,7 +1588,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1602,7 +1611,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -1627,7 +1636,7 @@
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
@@ -1650,7 +1659,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>22</v>
       </c>
@@ -1675,7 +1684,7 @@
       </c>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
@@ -1698,7 +1707,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
@@ -1723,7 +1732,7 @@
       </c>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" ht="324.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="324.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>22</v>
       </c>
@@ -1750,7 +1759,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>22</v>
       </c>
@@ -1775,7 +1784,7 @@
       </c>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>44599</v>
       </c>
@@ -1798,7 +1807,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>44599</v>
       </c>
@@ -1821,7 +1830,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>44600</v>
       </c>
@@ -1838,7 +1847,7 @@
       <c r="G17" s="26"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>44600</v>
       </c>
@@ -1855,7 +1864,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>44600</v>
       </c>
@@ -1872,7 +1881,7 @@
       <c r="G19" s="29"/>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>44600</v>
       </c>
@@ -1889,7 +1898,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>44601</v>
       </c>
@@ -1906,7 +1915,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>44603</v>
       </c>
@@ -1923,7 +1932,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>44606</v>
       </c>
@@ -1944,7 +1953,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>44606</v>
       </c>
@@ -1965,7 +1974,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>44607</v>
       </c>
@@ -1988,7 +1997,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>44607</v>
       </c>
@@ -2013,7 +2022,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>44607</v>
       </c>
@@ -2036,7 +2045,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>44607</v>
       </c>
@@ -2061,7 +2070,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>44608</v>
       </c>
@@ -2084,7 +2093,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>44609</v>
       </c>
@@ -2107,7 +2116,7 @@
       <c r="G30" s="19"/>
       <c r="H30" s="20"/>
     </row>
-    <row r="31" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>44613</v>
       </c>
@@ -2130,7 +2139,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
         <v>44614</v>
       </c>
@@ -2153,7 +2162,7 @@
       <c r="G32" s="19"/>
       <c r="H32" s="20"/>
     </row>
-    <row r="33" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>44614</v>
       </c>
@@ -2178,7 +2187,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31">
         <v>44615</v>
       </c>
@@ -2201,7 +2210,7 @@
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
     </row>
-    <row r="35" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>44617</v>
       </c>
@@ -2224,7 +2233,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>44617</v>
       </c>
@@ -2247,7 +2256,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="31">
         <v>44620</v>
       </c>
@@ -2270,7 +2279,7 @@
       <c r="G37" s="19"/>
       <c r="H37" s="20"/>
     </row>
-    <row r="38" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>44620</v>
       </c>
@@ -2293,7 +2302,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>44620</v>
       </c>
@@ -2316,7 +2325,7 @@
       <c r="G39" s="19"/>
       <c r="H39" s="20"/>
     </row>
-    <row r="40" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>44621</v>
       </c>
@@ -2339,7 +2348,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31">
         <v>44621</v>
       </c>
@@ -2362,7 +2371,7 @@
       <c r="G41" s="19"/>
       <c r="H41" s="20"/>
     </row>
-    <row r="42" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>44621</v>
       </c>
@@ -2387,7 +2396,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31">
         <v>44621</v>
       </c>
@@ -2412,7 +2421,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>44621</v>
       </c>
@@ -2433,7 +2442,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="31">
         <v>44622</v>
       </c>
@@ -2456,7 +2465,7 @@
       <c r="G45" s="19"/>
       <c r="H45" s="20"/>
     </row>
-    <row r="46" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44622</v>
       </c>
@@ -2481,7 +2490,7 @@
       </c>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="31">
         <v>44622</v>
       </c>
@@ -2504,7 +2513,7 @@
       <c r="G47" s="19"/>
       <c r="H47" s="20"/>
     </row>
-    <row r="48" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="31">
         <v>44624</v>
       </c>
@@ -2527,7 +2536,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="31">
         <v>44624</v>
       </c>
@@ -2552,7 +2561,7 @@
       </c>
       <c r="H49" s="20"/>
     </row>
-    <row r="50" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A50" s="31">
         <v>44624</v>
       </c>
@@ -2575,33 +2584,51 @@
       <c r="G50" s="6"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="31"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
+    <row r="51" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="31">
+        <v>44627</v>
+      </c>
+      <c r="B51" s="18">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C51" s="18">
+        <v>0.43055555555555558</v>
+      </c>
       <c r="D51" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="23"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>106</v>
+      </c>
       <c r="G51" s="19"/>
       <c r="H51" s="20"/>
     </row>
-    <row r="52" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+    <row r="52" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>44627</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.47152777777777777</v>
+      </c>
       <c r="D52" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E52" s="30"/>
+        <v>4.0972222222222188E-2</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>107</v>
+      </c>
       <c r="F52" s="21"/>
       <c r="G52" s="6"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="31"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
@@ -2614,7 +2641,7 @@
       <c r="G53" s="19"/>
       <c r="H53" s="20"/>
     </row>
-    <row r="54" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2627,7 +2654,7 @@
       <c r="G54" s="6"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="31"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -2640,7 +2667,7 @@
       <c r="G55" s="19"/>
       <c r="H55" s="20"/>
     </row>
-    <row r="56" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2653,7 +2680,7 @@
       <c r="G56" s="6"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -2666,7 +2693,7 @@
       <c r="G57" s="19"/>
       <c r="H57" s="20"/>
     </row>
-    <row r="58" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2679,7 +2706,7 @@
       <c r="G58" s="6"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="31"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -2692,7 +2719,7 @@
       <c r="G59" s="19"/>
       <c r="H59" s="20"/>
     </row>
-    <row r="60" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2705,7 +2732,7 @@
       <c r="G60" s="6"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="31"/>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
@@ -2718,7 +2745,7 @@
       <c r="G61" s="19"/>
       <c r="H61" s="20"/>
     </row>
-    <row r="62" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2731,7 +2758,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="31"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -2744,7 +2771,7 @@
       <c r="G63" s="19"/>
       <c r="H63" s="20"/>
     </row>
-    <row r="64" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2757,7 +2784,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="31"/>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
@@ -2770,7 +2797,7 @@
       <c r="G65" s="19"/>
       <c r="H65" s="20"/>
     </row>
-    <row r="66" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2783,7 +2810,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="31"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
@@ -2796,7 +2823,7 @@
       <c r="G67" s="19"/>
       <c r="H67" s="20"/>
     </row>
-    <row r="68" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2809,7 +2836,7 @@
       <c r="G68" s="6"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="31"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
@@ -2822,7 +2849,7 @@
       <c r="G69" s="19"/>
       <c r="H69" s="20"/>
     </row>
-    <row r="70" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2835,7 +2862,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="31"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -2848,7 +2875,7 @@
       <c r="G71" s="19"/>
       <c r="H71" s="20"/>
     </row>
-    <row r="72" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2861,7 +2888,7 @@
       <c r="G72" s="6"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="31"/>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
@@ -2874,7 +2901,7 @@
       <c r="G73" s="19"/>
       <c r="H73" s="20"/>
     </row>
-    <row r="74" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2887,7 +2914,7 @@
       <c r="G74" s="6"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="31"/>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
@@ -2900,7 +2927,7 @@
       <c r="G75" s="19"/>
       <c r="H75" s="20"/>
     </row>
-    <row r="76" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2913,7 +2940,7 @@
       <c r="G76" s="6"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="31"/>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
@@ -2926,7 +2953,7 @@
       <c r="G77" s="19"/>
       <c r="H77" s="20"/>
     </row>
-    <row r="78" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2939,7 +2966,7 @@
       <c r="G78" s="6"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="31"/>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
@@ -2952,7 +2979,7 @@
       <c r="G79" s="19"/>
       <c r="H79" s="20"/>
     </row>
-    <row r="80" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>44659</v>
       </c>
@@ -2975,7 +3002,7 @@
       <c r="G80" s="6"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="31">
         <v>44660</v>
       </c>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -441,6 +441,30 @@
   <si>
     <t>Adaptation du flowField
 pathfinding dynamic</t>
+  </si>
+  <si>
+    <t>Un refactor Urgent</t>
+  </si>
+  <si>
+    <t>L'architecture menace de devenir hors de contrôle
+refactors suivant sont nécessaire
+création d'interface pour le système de grille
+Centralisation de la ressource : TerrainData dipliquez si souvent que j'en ai perdu le compte</t>
+  </si>
+  <si>
+    <t>Utilisation d'un singleton pour le TerrainData</t>
+  </si>
+  <si>
+    <t>Recoller les morceaux</t>
+  </si>
+  <si>
+    <t>Le refactor c'est très mal passé et à révélé au grand jour de gros problème dans l'utilisation des ressources</t>
+  </si>
+  <si>
+    <t>Début du flowfield dynamic</t>
+  </si>
+  <si>
+    <t>après un refactor compliqué début de l'implémentation du flowfield dynamic</t>
   </si>
 </sst>
 </file>
@@ -1432,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2629,41 +2653,73 @@
       <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
+      <c r="A53" s="31">
+        <v>44628</v>
+      </c>
+      <c r="B53" s="18">
+        <v>0.5625</v>
+      </c>
+      <c r="C53" s="18">
+        <v>0.62430555555555556</v>
+      </c>
       <c r="D53" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="19"/>
+        <v>6.1805555555555558E-2</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>110</v>
+      </c>
       <c r="H53" s="20"/>
     </row>
     <row r="54" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+      <c r="A54" s="3">
+        <v>44628</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.66527777777777775</v>
+      </c>
       <c r="D54" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E54" s="30"/>
-      <c r="F54" s="21"/>
+        <v>4.0972222222222188E-2</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>112</v>
+      </c>
       <c r="G54" s="6"/>
       <c r="H54" s="9"/>
     </row>
     <row r="55" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
+      <c r="A55" s="31">
+        <v>44628</v>
+      </c>
+      <c r="B55" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C55" s="18">
+        <v>0.68194444444444446</v>
+      </c>
       <c r="D55" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="23"/>
+        <v>1.5277777777777835E-2</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="G55" s="19"/>
       <c r="H55" s="20"/>
     </row>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="121">
   <si>
     <t>Date</t>
   </si>
@@ -465,6 +465,25 @@
   </si>
   <si>
     <t>après un refactor compliqué début de l'implémentation du flowfield dynamic</t>
+  </si>
+  <si>
+    <t>Amélioration Grid System</t>
+  </si>
+  <si>
+    <t>Utilisation de l'héritage plutôt que d'une interface
+Dans notre cas la grille "simple" peut être instancier Seul Donc la méthode est valide</t>
+  </si>
+  <si>
+    <t>Début de création d'un template Main Menu</t>
+  </si>
+  <si>
+    <t>Canvas</t>
+  </si>
+  <si>
+    <t>MainMenu interaction</t>
+  </si>
+  <si>
+    <t>table de conversion pour grid system</t>
   </si>
 </sst>
 </file>
@@ -1456,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2724,53 +2743,89 @@
       <c r="H55" s="20"/>
     </row>
     <row r="56" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+      <c r="A56" s="3">
+        <v>44629</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.35138888888888892</v>
+      </c>
       <c r="D56" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E56" s="30"/>
-      <c r="F56" s="21"/>
+        <v>1.8055555555555602E-2</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>116</v>
+      </c>
       <c r="G56" s="6"/>
       <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="31">
+        <v>44629</v>
+      </c>
+      <c r="B57" s="18">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="C57" s="18">
+        <v>0.36944444444444446</v>
+      </c>
       <c r="D57" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="23"/>
+        <v>1.736111111111116E-2</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="G57" s="19"/>
       <c r="H57" s="20"/>
     </row>
     <row r="58" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+      <c r="A58" s="3">
+        <v>44629</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.38194444444444442</v>
+      </c>
       <c r="D58" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E58" s="30"/>
+        <v>1.2499999999999956E-2</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>119</v>
+      </c>
       <c r="F58" s="21"/>
       <c r="G58" s="6"/>
       <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="31">
+        <v>44629</v>
+      </c>
+      <c r="B59" s="18">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C59" s="18">
+        <v>0.3979166666666667</v>
+      </c>
       <c r="D59" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E59" s="30"/>
+        <v>1.5972222222222276E-2</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>120</v>
+      </c>
       <c r="F59" s="23"/>
       <c r="G59" s="19"/>
       <c r="H59" s="20"/>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="127">
   <si>
     <t>Date</t>
   </si>
@@ -484,6 +484,26 @@
   </si>
   <si>
     <t>table de conversion pour grid system</t>
+  </si>
+  <si>
+    <t>Conception et Analyse
+Grid System</t>
+  </si>
+  <si>
+    <t>Refactoring du système
+de partition de grille</t>
+  </si>
+  <si>
+    <t>Les tests on révélé des faiblesses dans l'implémentation de base il faut revoir tout!</t>
+  </si>
+  <si>
+    <t>Implémentation des test Unitaire + Bug Fixe</t>
+  </si>
+  <si>
+    <t>Trop de refactor…</t>
+  </si>
+  <si>
+    <t>On arrive enfin au bout de l'implémentation! Le code peut être mise dans le projet principal, cependant il faut encore un système de A* pour detecter si un chemin est possible</t>
   </si>
 </sst>
 </file>
@@ -1475,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2831,64 +2851,104 @@
       <c r="H59" s="20"/>
     </row>
     <row r="60" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+      <c r="A60" s="3">
+        <v>44631</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="D60" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E60" s="30"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>121</v>
+      </c>
       <c r="F60" s="21"/>
       <c r="G60" s="6"/>
       <c r="H60" s="9"/>
     </row>
     <row r="61" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
+      <c r="A61" s="31">
+        <v>44634</v>
+      </c>
+      <c r="B61" s="18">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C61" s="18">
+        <v>0.49652777777777773</v>
+      </c>
       <c r="D61" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E61" s="30"/>
-      <c r="F61" s="23"/>
+        <v>8.6805555555555469E-2</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>123</v>
+      </c>
       <c r="G61" s="19"/>
       <c r="H61" s="20"/>
     </row>
     <row r="62" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="A62" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.50347222222222221</v>
+      </c>
       <c r="D62" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E62" s="30"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>124</v>
+      </c>
       <c r="F62" s="21"/>
       <c r="G62" s="6"/>
       <c r="H62" s="9"/>
     </row>
     <row r="63" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="31">
+        <v>44635</v>
+      </c>
+      <c r="B63" s="18">
+        <v>0.5625</v>
+      </c>
+      <c r="C63" s="18">
+        <v>0.65694444444444444</v>
+      </c>
       <c r="D63" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="30"/>
-      <c r="F63" s="23"/>
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>126</v>
+      </c>
       <c r="G63" s="19"/>
       <c r="H63" s="20"/>
     </row>
     <row r="64" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="4"/>
+      <c r="A64" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0.65902777777777777</v>
+      </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-0.65902777777777777</v>
       </c>
       <c r="E64" s="30"/>
       <c r="F64" s="21"/>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="133">
   <si>
     <t>Date</t>
   </si>
@@ -504,6 +504,27 @@
   </si>
   <si>
     <t>On arrive enfin au bout de l'implémentation! Le code peut être mise dans le projet principal, cependant il faut encore un système de A* pour detecter si un chemin est possible</t>
+  </si>
+  <si>
+    <t>Refactor</t>
+  </si>
+  <si>
+    <t>refactor Astar pathfinding</t>
+  </si>
+  <si>
+    <t>implémentation de Astar
+Pathfinding</t>
+  </si>
+  <si>
+    <t>PROBLEME : la grille doit s'adapter a une grille plus grande..</t>
+  </si>
+  <si>
+    <t>Analyse du problème d'adaptation de grille</t>
+  </si>
+  <si>
+    <t>Problematique : 
+Soit on calcule dynamiquement a chaque besoin les cellule concernée
+on crée une grille temporaire adapté qui calculera une fois lors du callback tout les cas</t>
   </si>
 </sst>
 </file>
@@ -1495,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2945,52 +2966,84 @@
       <c r="B64" s="4">
         <v>0.65902777777777777</v>
       </c>
-      <c r="C64" s="4"/>
+      <c r="C64" s="4">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="D64" s="4">
         <f t="shared" si="7"/>
-        <v>-0.65902777777777777</v>
-      </c>
-      <c r="E64" s="30"/>
+        <v>4.5833333333333393E-2</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>127</v>
+      </c>
       <c r="F64" s="21"/>
       <c r="G64" s="6"/>
       <c r="H64" s="9"/>
     </row>
     <row r="65" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="31">
+        <v>44636</v>
+      </c>
+      <c r="B65" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C65" s="18">
+        <v>0.34861111111111115</v>
+      </c>
       <c r="D65" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="30"/>
+        <v>1.5277777777777835E-2</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>128</v>
+      </c>
       <c r="F65" s="23"/>
       <c r="G65" s="19"/>
       <c r="H65" s="20"/>
     </row>
     <row r="66" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+      <c r="A66" s="3">
+        <v>44636</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0.35625000000000001</v>
+      </c>
       <c r="D66" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="30"/>
-      <c r="F66" s="21"/>
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>130</v>
+      </c>
       <c r="G66" s="6"/>
       <c r="H66" s="9"/>
     </row>
     <row r="67" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
+      <c r="A67" s="31">
+        <v>44636</v>
+      </c>
+      <c r="B67" s="18">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="C67" s="18">
+        <v>0.39930555555555558</v>
+      </c>
       <c r="D67" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E67" s="30"/>
-      <c r="F67" s="23"/>
+        <v>4.3055555555555569E-2</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>132</v>
+      </c>
       <c r="G67" s="19"/>
       <c r="H67" s="20"/>
     </row>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-30825" yWindow="-105" windowWidth="30930" windowHeight="16890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="135">
   <si>
     <t>Date</t>
   </si>
@@ -525,6 +525,13 @@
     <t>Problematique : 
 Soit on calcule dynamiquement a chaque besoin les cellule concernée
 on crée une grille temporaire adapté qui calculera une fois lors du callback tout les cas</t>
+  </si>
+  <si>
+    <t>Refactor GridSystem
+abstract method</t>
+  </si>
+  <si>
+    <t>ABANDON : après plusieurs tentative, cette approche ne semble pas réalisable sans l'utilisation de Reflection. N'ayant pas le temps d'apprendre cette methode on garde le système d'interface</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1524,7 @@
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3048,25 +3055,39 @@
       <c r="H67" s="20"/>
     </row>
     <row r="68" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+      <c r="A68" s="3">
+        <v>44638</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0.60902777777777783</v>
+      </c>
       <c r="D68" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E68" s="30"/>
-      <c r="F68" s="21"/>
+        <v>4.5833333333333393E-2</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="G68" s="6"/>
       <c r="H68" s="9"/>
     </row>
     <row r="69" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="31"/>
-      <c r="B69" s="18"/>
+      <c r="A69" s="31">
+        <v>44638</v>
+      </c>
+      <c r="B69" s="18">
+        <v>0.61041666666666672</v>
+      </c>
       <c r="C69" s="18"/>
       <c r="D69" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-0.61041666666666672</v>
       </c>
       <c r="E69" s="30"/>
       <c r="F69" s="23"/>

--- a/Documentation/JournalDeTravail.xlsx
+++ b/Documentation/JournalDeTravail.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="139">
   <si>
     <t>Date</t>
   </si>
@@ -532,6 +532,18 @@
   </si>
   <si>
     <t>ABANDON : après plusieurs tentative, cette approche ne semble pas réalisable sans l'utilisation de Reflection. N'ayant pas le temps d'apprendre cette methode on garde le système d'interface</t>
+  </si>
+  <si>
+    <t>BUILD ISSUE</t>
+  </si>
+  <si>
+    <t>problème liée à la compilation qui se fait en AOT vs JIT dans l'éditeur, les méthode généric ont besoin d'être implémenté explicitement (voir blog : https://blog.unity.com/technology/feature-preview-il2cpp-full-generic-sharing-in-unity-20221-beta)</t>
+  </si>
+  <si>
+    <t>voir documentation : https://docs.unity3d.com/2021.2/Documentation/Manual/ScriptingRestrictions.html</t>
+  </si>
+  <si>
+    <t>doc</t>
   </si>
 </sst>
 </file>
@@ -1523,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3084,27 +3096,43 @@
       <c r="B69" s="18">
         <v>0.61041666666666672</v>
       </c>
-      <c r="C69" s="18"/>
+      <c r="C69" s="18">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="D69" s="18">
         <f t="shared" si="7"/>
-        <v>-0.61041666666666672</v>
-      </c>
-      <c r="E69" s="30"/>
+        <v>1.8055555555555491E-2</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>138</v>
+      </c>
       <c r="F69" s="23"/>
       <c r="G69" s="19"/>
       <c r="H69" s="20"/>
     </row>
     <row r="70" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
+      <c r="A70" s="3">
+        <v>44648</v>
+      </c>
+      <c r="B70" s="4">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="D70" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="30"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="6"/>
+        <v>0.10069444444444436</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="H70" s="9"/>
     </row>
     <row r="71" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3225,48 +3253,28 @@
       <c r="H79" s="20"/>
     </row>
     <row r="80" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>44659</v>
-      </c>
-      <c r="B80" s="4">
-        <v>12.020833333333499</v>
-      </c>
-      <c r="C80" s="4">
-        <v>12.086805555555699</v>
-      </c>
+      <c r="A80" s="3"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
       <c r="D80" s="4">
         <f t="shared" si="7"/>
-        <v>6.5972222222200116E-2</v>
-      </c>
-      <c r="E80" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="F80" s="21" t="s">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E80" s="30"/>
+      <c r="F80" s="21"/>
       <c r="G80" s="6"/>
       <c r="H80" s="9"/>
     </row>
     <row r="81" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="31">
-        <v>44660</v>
-      </c>
-      <c r="B81" s="18">
-        <v>12.250000000000099</v>
-      </c>
-      <c r="C81" s="18">
-        <v>12.3159722222223</v>
-      </c>
+      <c r="A81" s="31"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
       <c r="D81" s="18">
         <f t="shared" si="7"/>
-        <v>6.5972222222200116E-2</v>
-      </c>
-      <c r="E81" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="F81" s="23" t="s">
-        <v>62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E81" s="30"/>
+      <c r="F81" s="23"/>
       <c r="G81" s="19"/>
       <c r="H81" s="20"/>
     </row>
